--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/alarme sound R&amp;O 2back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AE1C7-BF2B-184D-A481-6DCCD530FA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DC014-24C4-D042-8FB2-FAFE2B58A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="2360" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13480" yWindow="700" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="11">
   <si>
     <t>ordre</t>
   </si>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,17 +479,17 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <f>SUM(C:C)</f>
-        <v>120</v>
+        <v>120.34999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -616,19 +616,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -636,16 +633,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -721,19 +721,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,13 +738,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -792,16 +792,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,10 +815,7 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -846,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -855,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -863,12 +860,15 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
@@ -880,13 +880,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -914,19 +917,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -985,16 +985,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,16 +1022,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1039,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1062,10 +1062,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1093,19 +1090,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1113,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1122,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,15 +1124,146 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
+        <v>0.05</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
         <v>2.9</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>9</v>
       </c>
     </row>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/alarme sound R&amp;O 2back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DC014-24C4-D042-8FB2-FAFE2B58A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E46EC-91A9-AE47-A2CB-C327439DBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13480" yWindow="700" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="142" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -397,7 +397,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,7 +434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -487,12 +487,8 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="I5">
-        <f>SUM(C:C)</f>
-        <v>120.34999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -509,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -526,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -543,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -560,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -577,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -594,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -611,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -628,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -648,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -665,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
